--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C90BFA-EAE1-4E1A-8741-ED268844CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7EE0FD-9519-4B79-A199-7FB5F7118E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>细心</t>
   </si>
   <si>
-    <t>每次入住后，替换为一项其他个性</t>
-  </si>
-  <si>
     <t>抽象</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>INTP</t>
   </si>
   <si>
-    <t>每回合结束后，随机改变一个租客的职业</t>
-  </si>
-  <si>
     <t>ENTJ</t>
   </si>
   <si>
@@ -301,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每X天，随机变成其他职业（交租后才变）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,6 +400,17 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一次重掷机会</t>
+  </si>
+  <si>
+    <t>若没有邻居，租金随机增加1~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有X个邻居，则租金翻倍（X每天随机）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +454,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -740,10 +742,10 @@
   <dimension ref="A3:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,10 +771,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -828,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>5001</v>
@@ -858,8 +860,8 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D9">
         <v>5003</v>
@@ -870,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10">
         <v>5004</v>
@@ -882,7 +884,7 @@
         <v>500500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,10 +892,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
       <c r="D11">
         <v>5005</v>
@@ -907,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
       <c r="D12">
         <v>5006</v>
@@ -921,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13">
         <v>5007</v>
@@ -938,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D14">
         <v>5008</v>
@@ -955,19 +957,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15">
         <v>5020</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -975,19 +977,19 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D16">
         <v>5021</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,19 +997,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>5022</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,16 +1017,16 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>5023</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1032,19 +1034,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>5024</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,16 +1054,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>5025</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,10 +1071,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>5026</v>
@@ -1083,19 +1085,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>5027</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,19 +1105,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>5028</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>5029</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>5030</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>5031</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,19 +1176,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>5032</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,19 +1196,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>5033</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,19 +1216,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>5034</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,10 +1236,10 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>5035</v>
@@ -1248,19 +1250,19 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>5050</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1268,19 +1270,19 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>5051</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,19 +1290,19 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>5052</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,19 +1310,19 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>5053</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,19 +1330,19 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>5054</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,19 +1350,19 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>5055</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1368,19 +1370,19 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>5056</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,19 +1390,19 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>5057</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1408,19 +1410,19 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>5058</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,19 +1430,19 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40">
         <v>5059</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,16 +1450,16 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>5060</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,19 +1467,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>5061</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,19 +1487,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>5062</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1505,19 +1507,19 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44">
         <v>5063</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1525,21 +1527,21 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>5064</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7EE0FD-9519-4B79-A199-7FB5F7118E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923CD67-B615-4CCA-B29E-56DCDBFA23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,11 +454,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,10 +741,10 @@
   <dimension ref="A3:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,7 +859,7 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>117</v>
       </c>
       <c r="D9">
@@ -942,7 +941,7 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
       <c r="D14">
@@ -979,7 +978,7 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>116</v>
       </c>
       <c r="D16">

--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923CD67-B615-4CCA-B29E-56DCDBFA23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE49785-5816-4A56-9EE5-5CB704CB10B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -114,9 +125,6 @@
     <t>ENTP</t>
   </si>
   <si>
-    <t>每次改变职业后，租金+2</t>
-  </si>
-  <si>
     <t>INFJ</t>
   </si>
   <si>
@@ -150,15 +158,9 @@
     <t>ISFJ</t>
   </si>
   <si>
-    <t>获得该人格时，获得一天额外天数</t>
-  </si>
-  <si>
     <t>ESTJ</t>
   </si>
   <si>
-    <t>交租后，生成一个任意职业的实习生</t>
-  </si>
-  <si>
     <t>ESFJ</t>
   </si>
   <si>
@@ -168,9 +170,6 @@
     <t>ISTP</t>
   </si>
   <si>
-    <t>持续生效：交租前，每有一个空房间，租金+10</t>
-  </si>
-  <si>
     <t>ISFP</t>
   </si>
   <si>
@@ -180,15 +179,9 @@
     <t>ESTP</t>
   </si>
   <si>
-    <t>交租时，每个完整人格拥有者提供+10租金</t>
-  </si>
-  <si>
     <t>ESFP</t>
   </si>
   <si>
-    <t>入住后，若周围有空房间，用随机租客填满所有空房</t>
-  </si>
-  <si>
     <t>学生党</t>
   </si>
   <si>
@@ -411,6 +404,30 @@
   </si>
   <si>
     <t>若有X个邻居，则租金翻倍（X每天随机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得邻居最高的房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天，生成一个任意职业的实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若没有邻居，则生成8个随机租客，然后离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续生效：交租前，周围每有一个空房间，租金+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若基础租金比所有邻居都高，则让邻居租金等于他的租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若所有邻居都是ESFP，这局游戏胜利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +758,10 @@
   <dimension ref="A3:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>5001</v>
@@ -860,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>5003</v>
@@ -883,7 +900,7 @@
         <v>500500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,7 +959,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>5008</v>
@@ -965,10 +982,10 @@
         <v>5020</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,16 +996,16 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <v>5021</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,10 +1022,10 @@
         <v>5022</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,13 +1036,13 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>5023</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1033,19 +1050,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
       </c>
       <c r="D19">
         <v>5024</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,16 +1070,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
       <c r="D20">
         <v>5025</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1070,10 +1087,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
       </c>
       <c r="D21">
         <v>5026</v>
@@ -1084,19 +1101,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
       </c>
       <c r="D22">
         <v>5027</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,19 +1121,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
       </c>
       <c r="D23">
         <v>5028</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,16 +1141,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D24">
         <v>5029</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,16 +1158,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>5030</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,16 +1175,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>5031</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,19 +1192,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>5032</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1195,19 +1212,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>5033</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,19 +1232,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>5034</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1235,10 +1252,10 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>5035</v>
@@ -1249,19 +1266,19 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>5050</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,19 +1286,19 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>5051</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1289,19 +1306,19 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>5052</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,19 +1326,19 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>5053</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,19 +1346,19 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>5054</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,19 +1366,19 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>5055</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1369,19 +1386,19 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>5056</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,19 +1406,19 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>5057</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1409,19 +1426,19 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>5058</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1429,19 +1446,19 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>5059</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1449,16 +1466,16 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>5060</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1466,19 +1483,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <v>5061</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,19 +1503,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <v>5062</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,19 +1523,19 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>5063</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,21 +1543,21 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D45">
         <v>5064</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE49785-5816-4A56-9EE5-5CB704CB10B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F66A3-C4EC-4992-86AB-86740899171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -197,9 +197,6 @@
     <t>游戏</t>
   </si>
   <si>
-    <t>交租时若有3个其他生效中的系列，租金*2</t>
-  </si>
-  <si>
     <t>自由职业</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>餐饮哥</t>
   </si>
   <si>
-    <t>每次完成交租，使所有住客房租+1</t>
-  </si>
-  <si>
     <t>媒体哥</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>珠宝哥</t>
   </si>
   <si>
-    <t>交租后：若有其他系列上交了50以上的房租，该系列租金+50</t>
-  </si>
-  <si>
     <t>医疗哥</t>
   </si>
   <si>
@@ -284,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,30 +327,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,0,-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,15,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,22 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,9,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,6 +379,18 @@
   </si>
   <si>
     <t>若所有邻居都是ESFP，这局游戏胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交租时若有3个其他系列人数超过2，租金*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次完成交租，使所有非餐饮住客房租+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供房租，被消除时，获得所有邻居的售价返还</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +721,10 @@
   <dimension ref="A3:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15:C30"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -812,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -846,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>5001</v>
@@ -877,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>5003</v>
@@ -900,7 +863,7 @@
         <v>500500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>5008</v>
@@ -982,10 +945,10 @@
         <v>5020</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,16 +959,16 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>5021</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,10 +985,10 @@
         <v>5022</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1036,13 +999,13 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <v>5023</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1059,10 +1022,10 @@
         <v>5024</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1079,7 +1042,7 @@
         <v>5025</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1110,10 +1073,10 @@
         <v>5027</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,10 +1093,10 @@
         <v>5028</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,13 +1107,13 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>5029</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,13 +1124,13 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>5030</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,7 +1147,7 @@
         <v>5031</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1195,16 +1158,16 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>5032</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,10 +1184,10 @@
         <v>5033</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1235,16 +1198,16 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>5034</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,7 +1218,7 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>5035</v>
@@ -1275,10 +1238,10 @@
         <v>5050</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,10 +1258,10 @@
         <v>5051</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,16 +1272,16 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>5052</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,19 +1289,19 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
         <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
       </c>
       <c r="D34">
         <v>5053</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,19 +1309,19 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
       </c>
       <c r="D35">
         <v>5054</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1366,19 +1329,19 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
       </c>
       <c r="D36">
         <v>5055</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1386,19 +1349,19 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
         <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
       </c>
       <c r="D37">
         <v>5056</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,19 +1369,19 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>5057</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,19 +1389,19 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
         <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
       </c>
       <c r="D39">
         <v>5058</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1446,19 +1409,19 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>5059</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1466,16 +1429,16 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>5060</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1483,19 +1446,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>5061</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1503,19 +1466,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D43">
         <v>5062</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1523,19 +1486,19 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <v>5063</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1543,28 +1506,28 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>5064</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E7:F45" numberStoredAsText="1"/>
+    <ignoredError sqref="E7:F30 F35 F32 F31 E41:F41 E45:F45 F34 F37 F44 F39 F40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F66A3-C4EC-4992-86AB-86740899171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD49CE7-2E16-4923-B8AC-0C0CEA375455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>ENTJ</t>
   </si>
   <si>
-    <t>获得后触发：选择一个租客，使其房租翻倍</t>
-  </si>
-  <si>
     <t>ENTP</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>ENFJ</t>
   </si>
   <si>
-    <t>获得后触发：使所有租客变为外向型</t>
-  </si>
-  <si>
     <t>ENFP</t>
   </si>
   <si>
@@ -391,6 +385,14 @@
   </si>
   <si>
     <t>不提供房租，被消除时，获得所有邻居的售价返还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使其邻居的售价永久+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除房租比他低的邻居</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +723,10 @@
   <dimension ref="A3:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>5001</v>
@@ -840,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>5003</v>
@@ -863,7 +865,7 @@
         <v>500500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>5008</v>
@@ -945,10 +947,10 @@
         <v>5020</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,16 +961,16 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>5021</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,16 +981,16 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>5022</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,16 +998,16 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>5023</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1013,19 +1015,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
       <c r="D19">
         <v>5024</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1033,16 +1035,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20">
         <v>5025</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1050,10 +1052,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>5026</v>
@@ -1064,19 +1066,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>5027</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,19 +1086,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>5028</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,16 +1106,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>5029</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,16 +1123,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <v>5030</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,16 +1140,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>5031</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,19 +1157,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>5032</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,19 +1177,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>5033</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1195,19 +1197,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>5034</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,10 +1217,10 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30">
         <v>5035</v>
@@ -1229,19 +1231,19 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>5050</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,19 +1251,19 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>5051</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,19 +1271,19 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>5052</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1289,19 +1291,19 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>5053</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,19 +1311,19 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>5054</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,19 +1331,19 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>5055</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,19 +1351,19 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>5056</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1369,19 +1371,19 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38">
         <v>5057</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,19 +1391,19 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>5058</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1409,19 +1411,19 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>5059</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1429,16 +1431,16 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>5060</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1446,19 +1448,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>5061</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1466,19 +1468,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43">
         <v>5062</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,19 +1488,19 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>5063</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,21 +1508,21 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45">
         <v>5064</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Skill.xlsx
+++ b/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD49CE7-2E16-4923-B8AC-0C0CEA375455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB0AC4E-9094-49F9-8B96-ED53BF5E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -393,6 +393,22 @@
   </si>
   <si>
     <t>移除房租比他低的邻居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,13 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F46"/>
+  <dimension ref="A3:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +754,7 @@
     <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -758,12 +774,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -783,7 +799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -803,7 +819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -816,8 +832,14 @@
       <c r="D7">
         <v>5001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -833,8 +855,14 @@
       <c r="F8" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -847,8 +875,14 @@
       <c r="D9">
         <v>5003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -867,8 +901,14 @@
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -884,8 +924,14 @@
       <c r="F11" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -898,8 +944,14 @@
       <c r="D12">
         <v>5006</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -915,8 +967,14 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -932,8 +990,11 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -952,8 +1013,14 @@
       <c r="F15" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21</v>
       </c>
@@ -972,8 +1039,14 @@
       <c r="F16" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22</v>
       </c>
@@ -992,8 +1065,14 @@
       <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1009,8 +1088,14 @@
       <c r="F18" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1029,8 +1114,14 @@
       <c r="F19" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1046,8 +1137,11 @@
       <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1060,8 +1154,14 @@
       <c r="D21">
         <v>5026</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1080,8 +1180,14 @@
       <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1100,8 +1206,14 @@
       <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1117,8 +1229,14 @@
       <c r="F24" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1134,8 +1252,14 @@
       <c r="F25" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1151,8 +1275,14 @@
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1171,8 +1301,14 @@
       <c r="F27" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1191,8 +1327,14 @@
       <c r="F28" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1211,8 +1353,14 @@
       <c r="F29" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1225,8 +1373,14 @@
       <c r="D30">
         <v>5035</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50</v>
       </c>
@@ -1245,8 +1399,14 @@
       <c r="F31" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>51</v>
       </c>
@@ -1265,8 +1425,14 @@
       <c r="F32" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>52</v>
       </c>
@@ -1285,8 +1451,14 @@
       <c r="F33" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>53</v>
       </c>
@@ -1305,8 +1477,14 @@
       <c r="F34" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>54</v>
       </c>
@@ -1325,8 +1503,11 @@
       <c r="F35" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>55</v>
       </c>
@@ -1345,8 +1526,14 @@
       <c r="F36" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>56</v>
       </c>
@@ -1365,8 +1552,14 @@
       <c r="F37" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>57</v>
       </c>
@@ -1385,8 +1578,14 @@
       <c r="F38" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>58</v>
       </c>
@@ -1405,8 +1604,14 @@
       <c r="F39" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>59</v>
       </c>
@@ -1425,8 +1630,14 @@
       <c r="F40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>60</v>
       </c>
@@ -1442,8 +1653,14 @@
       <c r="F41" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>61</v>
       </c>
@@ -1462,8 +1679,14 @@
       <c r="F42" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>62</v>
       </c>
@@ -1482,8 +1705,14 @@
       <c r="F43" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>63</v>
       </c>
@@ -1502,8 +1731,14 @@
       <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>64</v>
       </c>
@@ -1519,8 +1754,11 @@
       <c r="F45" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
